--- a/src/test/resources/test-cases.xlsx
+++ b/src/test/resources/test-cases.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +376,176 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">A3*B3</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-cases.xlsx
+++ b/src/test/resources/test-cases.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +376,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">A3*B3</f>
+        <f t="shared" ref="C3:C18" si="0">A3*B3</f>
         <v>20</v>
       </c>
     </row>
@@ -546,6 +546,17 @@
       <c r="C17">
         <f t="shared" si="0"/>
         <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.5</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
